--- a/data/pca/factorExposure/factorExposure_2013-06-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-27.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002122602691160211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001286429792369284</v>
+      </c>
+      <c r="C2">
+        <v>0.03226229475069196</v>
+      </c>
+      <c r="D2">
+        <v>-0.003718809821117409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002504747542926989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.00640603227883825</v>
+      </c>
+      <c r="C4">
+        <v>0.08362632401666664</v>
+      </c>
+      <c r="D4">
+        <v>-0.08190666925344565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004757726400710842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01384563889487838</v>
+      </c>
+      <c r="C6">
+        <v>0.1059927425100456</v>
+      </c>
+      <c r="D6">
+        <v>-0.03910818950271473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001219127217753003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005075812451481474</v>
+      </c>
+      <c r="C7">
+        <v>0.05206264418418657</v>
+      </c>
+      <c r="D7">
+        <v>-0.03722279791938733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002872395545660893</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006134610203702706</v>
+      </c>
+      <c r="C8">
+        <v>0.03817790348874445</v>
+      </c>
+      <c r="D8">
+        <v>-0.04146255748511368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00594102891901851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.0043250724321268</v>
+      </c>
+      <c r="C9">
+        <v>0.06766246407825584</v>
+      </c>
+      <c r="D9">
+        <v>-0.07129155572000517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004600150434337237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.006107220455158054</v>
+      </c>
+      <c r="C10">
+        <v>0.08608854101422526</v>
+      </c>
+      <c r="D10">
+        <v>0.213599137046807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.006156354789617197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005243094522485185</v>
+      </c>
+      <c r="C11">
+        <v>0.07839955574084649</v>
+      </c>
+      <c r="D11">
+        <v>-0.06669915475974947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001099822444302659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004071985330634465</v>
+      </c>
+      <c r="C12">
+        <v>0.06288388897217242</v>
+      </c>
+      <c r="D12">
+        <v>-0.0461259032798267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002600906653115632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008979181500796287</v>
+      </c>
+      <c r="C13">
+        <v>0.06988665061302575</v>
+      </c>
+      <c r="D13">
+        <v>-0.07231965862867115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.004018769293987883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.002225065388683386</v>
+      </c>
+      <c r="C14">
+        <v>0.04759138303953143</v>
+      </c>
+      <c r="D14">
+        <v>-0.01598587232277015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003653825038223134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005921790298341302</v>
+      </c>
+      <c r="C15">
+        <v>0.03737853959839058</v>
+      </c>
+      <c r="D15">
+        <v>-0.04469252721215223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003767049273548103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005222262919990605</v>
+      </c>
+      <c r="C16">
+        <v>0.0640570744410969</v>
+      </c>
+      <c r="D16">
+        <v>-0.05023756678038331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001695133054160546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009537068601093275</v>
+      </c>
+      <c r="C20">
+        <v>0.06495354117280709</v>
+      </c>
+      <c r="D20">
+        <v>-0.05887990702913858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003169120944702643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01009252486402507</v>
+      </c>
+      <c r="C21">
+        <v>0.02647016075598183</v>
+      </c>
+      <c r="D21">
+        <v>-0.03679564208503443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01770800542658117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007240297406018765</v>
+      </c>
+      <c r="C22">
+        <v>0.08597643298374395</v>
+      </c>
+      <c r="D22">
+        <v>-0.1056074480533375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01796592568788849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006993522751157112</v>
+      </c>
+      <c r="C23">
+        <v>0.08854354441028918</v>
+      </c>
+      <c r="D23">
+        <v>-0.1026629291790641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004614630452403476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004840238771977942</v>
+      </c>
+      <c r="C24">
+        <v>0.07175013490022195</v>
+      </c>
+      <c r="D24">
+        <v>-0.06095966751030931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005815796258696126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003152097148980067</v>
+      </c>
+      <c r="C25">
+        <v>0.07629426469031172</v>
+      </c>
+      <c r="D25">
+        <v>-0.06471747991274893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007011443189233267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003945622199187389</v>
+      </c>
+      <c r="C26">
+        <v>0.04307499687432258</v>
+      </c>
+      <c r="D26">
+        <v>-0.01862230654702031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005245071800893335</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0005967608889723609</v>
+      </c>
+      <c r="C28">
+        <v>0.1344801167342591</v>
+      </c>
+      <c r="D28">
+        <v>0.3021295060204649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001637904271484116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003601286142208303</v>
+      </c>
+      <c r="C29">
+        <v>0.05017041645962689</v>
+      </c>
+      <c r="D29">
+        <v>-0.02139929777627776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.006842865820298343</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009677481324649956</v>
+      </c>
+      <c r="C30">
+        <v>0.1334551513160475</v>
+      </c>
+      <c r="D30">
+        <v>-0.1127258583999665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.000192335084171664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006414990171623156</v>
+      </c>
+      <c r="C31">
+        <v>0.0473044372301377</v>
+      </c>
+      <c r="D31">
+        <v>-0.03567226928278445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000654767541184028</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003828313912071385</v>
+      </c>
+      <c r="C32">
+        <v>0.04099958983773021</v>
+      </c>
+      <c r="D32">
+        <v>-0.01676763196643964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004388319528715256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008199086021830431</v>
+      </c>
+      <c r="C33">
+        <v>0.08131482981289095</v>
+      </c>
+      <c r="D33">
+        <v>-0.07823112025821233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00600037180751716</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003970291048109415</v>
+      </c>
+      <c r="C34">
+        <v>0.05622622556925582</v>
+      </c>
+      <c r="D34">
+        <v>-0.04500949829753152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004217848000596847</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005022301519082633</v>
+      </c>
+      <c r="C35">
+        <v>0.03885072329799658</v>
+      </c>
+      <c r="D35">
+        <v>-0.01762071586164251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005298167222677615</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00116354639604755</v>
+      </c>
+      <c r="C36">
+        <v>0.02669552727275034</v>
+      </c>
+      <c r="D36">
+        <v>-0.01982858716740322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002147228279698415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009287965932721276</v>
+      </c>
+      <c r="C38">
+        <v>0.03522829563486667</v>
+      </c>
+      <c r="D38">
+        <v>-0.0315266225512465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01552705651608113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0007386354527566776</v>
+      </c>
+      <c r="C39">
+        <v>0.1114506479528181</v>
+      </c>
+      <c r="D39">
+        <v>-0.08780537661383324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008851089291050161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002758391068095731</v>
+      </c>
+      <c r="C40">
+        <v>0.08598434850380109</v>
+      </c>
+      <c r="D40">
+        <v>-0.03177079891762771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001142217175438059</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007543447114018896</v>
+      </c>
+      <c r="C41">
+        <v>0.0409985268377966</v>
+      </c>
+      <c r="D41">
+        <v>-0.03544084192935554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002092758218685113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003155533323563376</v>
+      </c>
+      <c r="C43">
+        <v>0.05154060447958651</v>
+      </c>
+      <c r="D43">
+        <v>-0.02901257811693922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00528415291879136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.004014832321244438</v>
+      </c>
+      <c r="C44">
+        <v>0.1045650303777719</v>
+      </c>
+      <c r="D44">
+        <v>-0.08722683726592881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002445911442050914</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002719762701499334</v>
+      </c>
+      <c r="C46">
+        <v>0.0338325026528571</v>
+      </c>
+      <c r="D46">
+        <v>-0.03450709886225391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002957615345784015</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002951117310700912</v>
+      </c>
+      <c r="C47">
+        <v>0.04117526076792818</v>
+      </c>
+      <c r="D47">
+        <v>-0.02789027660687236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.00367689210315099</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006593634578893341</v>
+      </c>
+      <c r="C48">
+        <v>0.03235598503192883</v>
+      </c>
+      <c r="D48">
+        <v>-0.02442766797097165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01680478042935145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01429469843476305</v>
+      </c>
+      <c r="C49">
+        <v>0.1653978361508496</v>
+      </c>
+      <c r="D49">
+        <v>-0.04018324734948255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003473547592122265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004187866970859245</v>
+      </c>
+      <c r="C50">
+        <v>0.04320423907635519</v>
+      </c>
+      <c r="D50">
+        <v>-0.03860022419261446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002437306524334722</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004174085641640497</v>
+      </c>
+      <c r="C51">
+        <v>0.0200280092472662</v>
+      </c>
+      <c r="D51">
+        <v>-0.03442751299352798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0003447684758457527</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02047725329154582</v>
+      </c>
+      <c r="C53">
+        <v>0.1629989747416409</v>
+      </c>
+      <c r="D53">
+        <v>-0.05871149875891964</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001328411211613573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008842391970414996</v>
+      </c>
+      <c r="C54">
+        <v>0.05437764209157252</v>
+      </c>
+      <c r="D54">
+        <v>-0.04255050024422928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.006050599155394984</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009886833440252362</v>
+      </c>
+      <c r="C55">
+        <v>0.1042575497365634</v>
+      </c>
+      <c r="D55">
+        <v>-0.05554195734849566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001551303421338222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01928086848123651</v>
+      </c>
+      <c r="C56">
+        <v>0.1678905622492523</v>
+      </c>
+      <c r="D56">
+        <v>-0.05860616760829244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008634826059415733</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01981582950383864</v>
+      </c>
+      <c r="C58">
+        <v>0.1001256076153047</v>
+      </c>
+      <c r="D58">
+        <v>-0.08080461237428209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.008571207483021185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009338890768363198</v>
+      </c>
+      <c r="C59">
+        <v>0.1756662330408986</v>
+      </c>
+      <c r="D59">
+        <v>0.2701396320140705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008970814966526797</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02320116804530476</v>
+      </c>
+      <c r="C60">
+        <v>0.2205087421088019</v>
+      </c>
+      <c r="D60">
+        <v>-0.0327050713470102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01792380047157512</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001734829961998062</v>
+      </c>
+      <c r="C61">
+        <v>0.09362478738809023</v>
+      </c>
+      <c r="D61">
+        <v>-0.06606272965869894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.188400523696585</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1450599745396168</v>
+      </c>
+      <c r="C62">
+        <v>0.06804072317360402</v>
+      </c>
+      <c r="D62">
+        <v>-0.05331218766521304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.002960050559651582</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006927816351974265</v>
+      </c>
+      <c r="C63">
+        <v>0.05900337149122186</v>
+      </c>
+      <c r="D63">
+        <v>-0.02746250130446627</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006518518998133461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01586241192195526</v>
+      </c>
+      <c r="C64">
+        <v>0.09727428242138199</v>
+      </c>
+      <c r="D64">
+        <v>-0.06780024519977612</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0003613070217372902</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01750405124413608</v>
+      </c>
+      <c r="C65">
+        <v>0.1106730865860578</v>
+      </c>
+      <c r="D65">
+        <v>-0.03664487746986216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01230270281282053</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01269456550550876</v>
+      </c>
+      <c r="C66">
+        <v>0.1480300815496927</v>
+      </c>
+      <c r="D66">
+        <v>-0.1264979837178323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001826249365181442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01533375229712553</v>
+      </c>
+      <c r="C67">
+        <v>0.0640718129889478</v>
+      </c>
+      <c r="D67">
+        <v>-0.04378568279129892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.008634351913560276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001723835281140701</v>
+      </c>
+      <c r="C68">
+        <v>0.118380681704797</v>
+      </c>
+      <c r="D68">
+        <v>0.2652230738658258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003535585512462092</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00533913195802062</v>
+      </c>
+      <c r="C69">
+        <v>0.04642417408669761</v>
+      </c>
+      <c r="D69">
+        <v>-0.04388116899673637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001355148063835569</v>
+      </c>
+      <c r="C70">
+        <v>0.001797470736237106</v>
+      </c>
+      <c r="D70">
+        <v>-0.001596195359162314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004262480352451181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006426914916639387</v>
+      </c>
+      <c r="C71">
+        <v>0.1216217682803916</v>
+      </c>
+      <c r="D71">
+        <v>0.2798170731576418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008690185434472933</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01565771812480113</v>
+      </c>
+      <c r="C72">
+        <v>0.1474620968249417</v>
+      </c>
+      <c r="D72">
+        <v>-0.03394698344293711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0146088512753675</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03192019597977903</v>
+      </c>
+      <c r="C73">
+        <v>0.2838057473283188</v>
+      </c>
+      <c r="D73">
+        <v>-0.05306084409469403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005964254430045474</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002065577265482053</v>
+      </c>
+      <c r="C74">
+        <v>0.1019772065895652</v>
+      </c>
+      <c r="D74">
+        <v>-0.04686016746146333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.007283629142840842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01076463360396384</v>
+      </c>
+      <c r="C75">
+        <v>0.1306059726475794</v>
+      </c>
+      <c r="D75">
+        <v>-0.04693491337057754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01033746359418132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02136493713789904</v>
+      </c>
+      <c r="C76">
+        <v>0.1418208050887438</v>
+      </c>
+      <c r="D76">
+        <v>-0.07584813512715044</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.007747729040773821</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.0228953266518038</v>
+      </c>
+      <c r="C77">
+        <v>0.1255755766327556</v>
+      </c>
+      <c r="D77">
+        <v>-0.0751456423570914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008643332337898331</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01479172476032712</v>
+      </c>
+      <c r="C78">
+        <v>0.08919690919149771</v>
+      </c>
+      <c r="D78">
+        <v>-0.06925886648473588</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02590948972590373</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03718498533794204</v>
+      </c>
+      <c r="C79">
+        <v>0.1535029739064471</v>
+      </c>
+      <c r="D79">
+        <v>-0.04203770682066301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003659294128831184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01087003814604378</v>
+      </c>
+      <c r="C80">
+        <v>0.04297860662120645</v>
+      </c>
+      <c r="D80">
+        <v>-0.03305008325403372</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002260085136267477</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01482855375990164</v>
+      </c>
+      <c r="C81">
+        <v>0.1190127285383144</v>
+      </c>
+      <c r="D81">
+        <v>-0.06489600986995765</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005913524957138597</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01911274765097465</v>
+      </c>
+      <c r="C82">
+        <v>0.1387019231260655</v>
+      </c>
+      <c r="D82">
+        <v>-0.05289941845268895</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008503072050963054</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009814491869385837</v>
+      </c>
+      <c r="C83">
+        <v>0.0516789501601846</v>
+      </c>
+      <c r="D83">
+        <v>-0.05322185523262244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01408315136796601</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01247047804468785</v>
+      </c>
+      <c r="C84">
+        <v>0.03086135359194581</v>
+      </c>
+      <c r="D84">
+        <v>-0.00149915024698985</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01618316054402237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02868512877161624</v>
+      </c>
+      <c r="C85">
+        <v>0.1273968572554304</v>
+      </c>
+      <c r="D85">
+        <v>-0.05861963267310033</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003648557410375742</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004770976747686426</v>
+      </c>
+      <c r="C86">
+        <v>0.04722690779735253</v>
+      </c>
+      <c r="D86">
+        <v>-0.02325332052507553</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008377350406308985</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01059167878973181</v>
+      </c>
+      <c r="C87">
+        <v>0.1244441782734282</v>
+      </c>
+      <c r="D87">
+        <v>-0.08190561024804302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01493262231948784</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002855642359127666</v>
+      </c>
+      <c r="C88">
+        <v>0.0730990163171813</v>
+      </c>
+      <c r="D88">
+        <v>-0.01687755427207243</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.0156357194936292</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00154543933417184</v>
+      </c>
+      <c r="C89">
+        <v>0.1732389993350803</v>
+      </c>
+      <c r="D89">
+        <v>0.338560742365743</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002373124732515457</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.008023665023424232</v>
+      </c>
+      <c r="C90">
+        <v>0.1540393960781437</v>
+      </c>
+      <c r="D90">
+        <v>0.3121009291540096</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0004545454849966415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01012198531989857</v>
+      </c>
+      <c r="C91">
+        <v>0.1020648305691157</v>
+      </c>
+      <c r="D91">
+        <v>-0.02345837389618161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01656173366734141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001222651833246284</v>
+      </c>
+      <c r="C92">
+        <v>0.160801604921197</v>
+      </c>
+      <c r="D92">
+        <v>0.3188149021357855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0018723087290749</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005343866679471392</v>
+      </c>
+      <c r="C93">
+        <v>0.1356563923372446</v>
+      </c>
+      <c r="D93">
+        <v>0.3089922510760475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.000771710675143826</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02207190169594176</v>
+      </c>
+      <c r="C94">
+        <v>0.1543664381752893</v>
+      </c>
+      <c r="D94">
+        <v>-0.03778371884839812</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007124507145394546</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01696116588907888</v>
+      </c>
+      <c r="C95">
+        <v>0.1208304618128395</v>
+      </c>
+      <c r="D95">
+        <v>-0.06963452609125835</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004831242857843723</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03301815537588704</v>
+      </c>
+      <c r="C97">
+        <v>0.1671946476425596</v>
+      </c>
+      <c r="D97">
+        <v>-0.04721971566365149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.009675245862403897</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03616993391345007</v>
+      </c>
+      <c r="C98">
+        <v>0.257597156409353</v>
+      </c>
+      <c r="D98">
+        <v>-0.05015328317787678</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.979299974450297</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9823347895585662</v>
+      </c>
+      <c r="C99">
+        <v>-0.1096743234195969</v>
+      </c>
+      <c r="D99">
+        <v>0.03612903505596378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001588358873755127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003646213156770003</v>
+      </c>
+      <c r="C101">
+        <v>0.05025936375752033</v>
+      </c>
+      <c r="D101">
+        <v>-0.02141979594465796</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
